--- a/SE_16_B711084_배형민.xlsx
+++ b/SE_16_B711084_배형민.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t xml:space="preserve"> Requirement list  (functional, non-functional 구분)</t>
   </si>
@@ -146,6 +146,141 @@
   </si>
   <si>
     <t>회원은 자신이 판매 완료한 상품을 조회할 수 있습니다. 판매 완료한 상품이란 판매 종료일이 지났거나 남은 수량이 0인 상품입니다. 해당 상품의 상품명, 제작회사명, 가격, 판매된 술량, 평균 구매만족도를 오름차순으로 출력합니다.</t>
+  </si>
+  <si>
+    <t>Actor action</t>
+  </si>
+  <si>
+    <t>System response</t>
+  </si>
+  <si>
+    <t>1.초기상태</t>
+  </si>
+  <si>
+    <t>2. 시스템을 작동한 초기상태이며 회원가입 또는 로그인을 대기중입니다.</t>
+  </si>
+  <si>
+    <t>3. 회원가입 버튼 클릭</t>
+  </si>
+  <si>
+    <t>4. 사용자의 개인정보를 입력받을 수 있는 폼이 출력됩니다.</t>
+  </si>
+  <si>
+    <t>5.회원가입 완료 버튼 클릭</t>
+  </si>
+  <si>
+    <t>6. 회원가입이 완료됐다는 알림을 띄우고 초기화면으로 돌아갑니다.</t>
+  </si>
+  <si>
+    <t>1. 초기상태</t>
+  </si>
+  <si>
+    <t>2. 시스템에 로그인한 상태이며 시스템 화면을 출력합니다.</t>
+  </si>
+  <si>
+    <t>3. 회원 탈퇴 버튼 클릭</t>
+  </si>
+  <si>
+    <t>4. 회원탈퇴 확인 알림이 출력됩니다.</t>
+  </si>
+  <si>
+    <t>5-1. yes 버튼 클릭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-2. 회원이 등록한 물품이 있는지 확인 후 사용자에게 알림을 반환합니다. </t>
+  </si>
+  <si>
+    <t>6-1. no 버튼 클릭</t>
+  </si>
+  <si>
+    <t>6-2. 초기상태인 1번으로 되돌아갑니다.</t>
+  </si>
+  <si>
+    <t>추가) 5-2에서 등록된 물품이 남아있다면 거절알림을 띄우고 6-2를 수행합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. ID/PW 입력후 로그인 </t>
+  </si>
+  <si>
+    <t>4. ID/PW를 확인 후 시스템에 회원을 로그인 시킵니다.</t>
+  </si>
+  <si>
+    <t>2. 로그인하여 시스템을 사용중인 상황입니다.</t>
+  </si>
+  <si>
+    <t>3. 로그아웃 버튼 클릭</t>
+  </si>
+  <si>
+    <t>4. 시스템에서 로그아웃 되고 자동으로 프로그램이 종료됩니다.</t>
+  </si>
+  <si>
+    <t>판매의류 등록</t>
+  </si>
+  <si>
+    <t>3. 등록 버튼을 클릭합니다.</t>
+  </si>
+  <si>
+    <t>4. 등록할 의류의 정보를 입력할 수 있는 폼으로 이동됩니다.</t>
+  </si>
+  <si>
+    <t>5. 내용 입력 후 등록버튼을 클릭합니다.</t>
+  </si>
+  <si>
+    <t>6. 의류의 정보를 등록하고 1번 화면으로 되돌아갑니다.</t>
+  </si>
+  <si>
+    <t>추가) 6번단계에서 초기화면이 아닌 판매의류 조회 화면으로 갈 수 있습니다.</t>
+  </si>
+  <si>
+    <t>판매의류 조회</t>
+  </si>
+  <si>
+    <t>3. 판매의류 조회 버튼 클릭</t>
+  </si>
+  <si>
+    <t>4. 판매자가 등록하여 판매중인 물품을 출력합니다.</t>
+  </si>
+  <si>
+    <t>판매의류 수정</t>
+  </si>
+  <si>
+    <t>2. 판매의류를 조회중인 상황입니다.</t>
+  </si>
+  <si>
+    <t>3. 하나의 아이템 선택</t>
+  </si>
+  <si>
+    <t>4. 선택된 아이템의 정보를 출력해줍니다.</t>
+  </si>
+  <si>
+    <t>5. 수정 버튼 클릭</t>
+  </si>
+  <si>
+    <t>6. 선택된 아이템의 정보를 수정할 수 있는 폼을 출력해줍니다. 이때 기존의 데이터가 미리 담겨져 있어 원하는 부분만 수정합니다.</t>
+  </si>
+  <si>
+    <t>7. 수정 완료 버튼 클릭</t>
+  </si>
+  <si>
+    <t>8. 수정된 정보로 의류를 재 등록 후 1번 화면으로 돌아갑니다.</t>
+  </si>
+  <si>
+    <t>3. 판매완료된 상품 내역 조회 클릭</t>
+  </si>
+  <si>
+    <t>4. 판매자가 판매 완료한 상품 내역을 출력해줍니다. 이때 리스트는 상품명의 오름차순으로 정렬됩니다.</t>
+  </si>
+  <si>
+    <t>5. 하나의 아이템 선택</t>
+  </si>
+  <si>
+    <t>6. 선택된 아이템의 정보를 출력해줍니다.</t>
+  </si>
+  <si>
+    <t>7. 닫기 버튼 클릭</t>
+  </si>
+  <si>
+    <t>8. 1번 화면으로 되돌아갑니다.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +662,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.13"/>
     <col customWidth="1" min="2" max="2" width="24.5"/>
-    <col customWidth="1" min="3" max="3" width="14.5"/>
+    <col customWidth="1" min="3" max="3" width="22.75"/>
     <col customWidth="1" min="4" max="4" width="60.75"/>
     <col customWidth="1" min="5" max="5" width="23.88"/>
   </cols>
@@ -801,6 +936,316 @@
       </c>
       <c r="E42" s="15"/>
     </row>
+    <row r="45">
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/SE_16_B711084_배형민.xlsx
+++ b/SE_16_B711084_배형민.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t xml:space="preserve"> Requirement list  (functional, non-functional 구분)</t>
   </si>
@@ -82,31 +82,22 @@
     <t>description</t>
   </si>
   <si>
-    <t>고객</t>
-  </si>
-  <si>
-    <t>고객은 회원정보를 입력하여 회원가입을 할 수 있습니다.</t>
-  </si>
-  <si>
     <t>회원</t>
   </si>
   <si>
-    <t>회원은 로그인을 통해 시스템에 대한 사용 권한을 얻을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>고객(판매자)</t>
-  </si>
-  <si>
-    <t>판매자는 의류를 등록, 판매, 조회, 수정 할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>고객(구매자)</t>
+    <t>회원은 회원가입을 할 수 있고, 로그인을 통해 시스템에 대한 사용 권한을 얻을 수 있습니다. 또한 로그인 하여 의류를 등록/ 판매/ 조회 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프로그램 종료</t>
+  </si>
+  <si>
+    <t>회원이 로그아웃 시 자동으로 프로그램을 종료합니다.</t>
+  </si>
+  <si>
+    <t>택배사</t>
   </si>
   <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>택배사</t>
   </si>
   <si>
     <t>이메일</t>
@@ -815,38 +806,20 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="15"/>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="15"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>3.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -854,13 +827,13 @@
         <v>4.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34" s="18"/>
     </row>
@@ -869,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -878,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" s="14"/>
     </row>
@@ -887,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E37" s="14"/>
     </row>
@@ -896,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E38" s="14"/>
     </row>
@@ -905,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E39" s="14"/>
     </row>
@@ -914,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E40" s="14"/>
     </row>
@@ -923,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41" s="14"/>
     </row>
@@ -932,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E42" s="15"/>
     </row>
@@ -943,37 +916,37 @@
     </row>
     <row r="46">
       <c r="C46" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E46" s="18"/>
     </row>
     <row r="47">
       <c r="C47" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48">
       <c r="C48" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E48" s="14"/>
     </row>
     <row r="49">
       <c r="C49" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -984,47 +957,47 @@
     </row>
     <row r="52">
       <c r="C52" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
@@ -1034,26 +1007,26 @@
     </row>
     <row r="60">
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
@@ -1063,142 +1036,142 @@
     </row>
     <row r="65">
       <c r="C65" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="C66" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="C70" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="C71" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72">
       <c r="C72" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
       <c r="C73" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="C76" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="C77" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="C78" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79">
       <c r="C79" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81">
       <c r="C81" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="C82" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="C83" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84">
       <c r="C84" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="C86" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -1208,42 +1181,42 @@
     </row>
     <row r="89">
       <c r="C89" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
       <c r="C90" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91">
       <c r="C91" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="C92" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
       <c r="C93" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
